--- a/src/fix_tables/barrier_fix_table.xlsx
+++ b/src/fix_tables/barrier_fix_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewP\Canadian Wildlife Federation\Conservation Science General - Documents\Freshwater\Fish Passage\Nova Scotia\CMM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cwffcf-my.sharepoint.com/personal/andrewp_cwf-fcf_org/Documents/Documents/GitHub/nsfishpass/src/fix_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E0AE50-62B0-47FB-82C3-6E58C42F09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E2E0AE50-62B0-47FB-82C3-6E58C42F09D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63E6F04B-9D92-4998-941B-120FEE0F2F38}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D4BDC674-5DE2-4809-A59A-52E86FAE48CF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>update_source</t>
   </si>
@@ -107,16 +107,41 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>029ffe32-f2be-4430-82cb-f690e3b9f6fd</t>
+  </si>
+  <si>
+    <t>Manual review FM</t>
+  </si>
+  <si>
+    <t>MR_042</t>
+  </si>
+  <si>
+    <t>6/20/2024</t>
+  </si>
+  <si>
+    <t>Plastic culvert confirmed at quarry site. Outflow drop. Unsuitable habitat and no assessment done - we won't return to this site. Low remediation priority. Eel passability unknown.</t>
+  </si>
+  <si>
+    <t>Not enoug information to indicate passable.Passability status unknown so will put 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,8 +167,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAC7812-99EB-4FA5-AE57-A4740EC1B6D4}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,12 +579,46 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:17" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{E3BD5BC0-A319-417C-8CA0-950DA65D5441}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{E3BD5BC0-A319-417C-8CA0-950DA65D5441}">
       <formula1>update_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{1A7725F6-762D-4A61-B0EA-19DE6D42FF29}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{1A7725F6-762D-4A61-B0EA-19DE6D42FF29}">
       <formula1>barrier_type</formula1>
     </dataValidation>
   </dataValidations>
